--- a/Input_files/cpt_data_files/RWE-Taiwan/SOIL_PROPERTY-combined.xlsx
+++ b/Input_files/cpt_data_files/RWE-Taiwan/SOIL_PROPERTY-combined.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc\PycharmProjects\cpt\RWE-Taiwan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc\PycharmProjects\SI_processing_automation\Input_files\cpt_data_files\RWE-Taiwan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577D9F3-3911-43B7-BC26-FEEC810F7601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14748" windowHeight="5268"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>ItemKey</t>
   </si>
@@ -72,12 +84,21 @@
   </si>
   <si>
     <t>Clayey Sand</t>
+  </si>
+  <si>
+    <t>SILT</t>
+  </si>
+  <si>
+    <t>Sandy Silt</t>
+  </si>
+  <si>
+    <t>Silty Clay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,20 +193,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,17 +483,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -522,36 +543,39 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <f>C2</f>
         <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>0.5</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20</v>
+      </c>
       <c r="H3" s="2">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C7" si="0">C3</f>
+        <f>C2</f>
         <v>20</v>
       </c>
       <c r="D4" s="2">
@@ -568,33 +592,37 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C9" si="0">C4</f>
         <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>0.5</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
       <c r="H5" s="2">
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
@@ -604,15 +632,19 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
       <c r="H6" s="2">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
@@ -631,6 +663,48 @@
         <v>215</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
